--- a/sql/database key.xlsx
+++ b/sql/database key.xlsx
@@ -5,16 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose1\Documents\projects\kea\tværfagligt\portfolio-5\sql\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose1\Documents\projects\kea\tværfagligt\portfolio-6\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2BD9BB-9032-4E80-A6F1-B217F28835C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEB420CF-95E6-47BA-8961-CA9F9CEC82CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4776" yWindow="588" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{6DDBDFF1-D40C-403F-ADD8-E51503AD60EA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6DDBDFF1-D40C-403F-ADD8-E51503AD60EA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Cafe" sheetId="1" r:id="rId1"/>
+    <sheet name="business_hours" sheetId="3" r:id="rId2"/>
+    <sheet name="User" sheetId="2" r:id="rId3"/>
+    <sheet name="favorites" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,20 +39,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="53">
   <si>
     <t>café columns</t>
   </si>
   <si>
-    <t>café id</t>
-  </si>
-  <si>
-    <t>café name</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
-  <si>
     <t>cost</t>
   </si>
   <si>
@@ -60,30 +53,9 @@
     <t>int</t>
   </si>
   <si>
-    <t>varchar()</t>
-  </si>
-  <si>
     <t>name of the café</t>
   </si>
   <si>
-    <t>varchar</t>
-  </si>
-  <si>
-    <t>city the café is located in</t>
-  </si>
-  <si>
-    <t>cost level, from 1-10 where 10 is very expensive. Minas would be 3.</t>
-  </si>
-  <si>
-    <t>type of café, choose between coffee, bar, food</t>
-  </si>
-  <si>
-    <t>study</t>
-  </si>
-  <si>
-    <t>yes/no. is the café study friendly? Loudness, plugs for charging, wifi etc.</t>
-  </si>
-  <si>
     <t>unique id of the café</t>
   </si>
   <si>
@@ -93,18 +65,6 @@
     <t>users column</t>
   </si>
   <si>
-    <t>user id</t>
-  </si>
-  <si>
-    <t>user name</t>
-  </si>
-  <si>
-    <t>first name</t>
-  </si>
-  <si>
-    <t>last name</t>
-  </si>
-  <si>
     <t>email</t>
   </si>
   <si>
@@ -112,6 +72,132 @@
   </si>
   <si>
     <t>user selected display name</t>
+  </si>
+  <si>
+    <t>cafe_id</t>
+  </si>
+  <si>
+    <t>cafe_name</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+  </si>
+  <si>
+    <t>cost level, low, medium or high.</t>
+  </si>
+  <si>
+    <t>wifi</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>true/false, is there free wifi?</t>
+  </si>
+  <si>
+    <t>Focused on CPH, the part of KBH the café is located in, fx Valby or Nørreport</t>
+  </si>
+  <si>
+    <t>noise</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>true/false, can you buy food?</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>gluten</t>
+  </si>
+  <si>
+    <t>vegetarian</t>
+  </si>
+  <si>
+    <t>true/false, is there gluten free options</t>
+  </si>
+  <si>
+    <t>true/false, is there vegetarian options</t>
+  </si>
+  <si>
+    <t>pets</t>
+  </si>
+  <si>
+    <t>true/false, is pets allowed</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>user_name</t>
+  </si>
+  <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">int </t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>business hours columns</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>open_time</t>
+  </si>
+  <si>
+    <t>close_time</t>
+  </si>
+  <si>
+    <t>FK</t>
+  </si>
+  <si>
+    <t>0-6 , hvor hver passer til en dag I javascript. Sunday is 0</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>Reference to café table</t>
+  </si>
+  <si>
+    <t>users first name</t>
+  </si>
+  <si>
+    <t>users last name</t>
+  </si>
+  <si>
+    <t>email of user</t>
+  </si>
+  <si>
+    <t>low/medium/high, low is "everybody studies with headset", medium is "group work, background noise", high is "café plays music and people talk loudly"</t>
+  </si>
+  <si>
+    <t>true/false, group friendly? Is there room for groups(5 people) to sit together?</t>
+  </si>
+  <si>
+    <t>favorites columns</t>
+  </si>
+  <si>
+    <t>ref to café</t>
+  </si>
+  <si>
+    <t>ref to user</t>
+  </si>
+  <si>
+    <t>24 hours, hh:mm:ss</t>
   </si>
 </sst>
 </file>
@@ -143,7 +229,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -151,18 +237,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -478,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B76A3DB-D7F3-4B5F-946A-0F7845712FB9}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -489,81 +600,139 @@
     <col min="3" max="3" width="31.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" s="6" customFormat="1" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D2" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
+      <c r="B6" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -572,70 +741,224 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45F69ADA-9C7A-4454-9807-D55CDD4BADEC}">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD4288D5-AA5E-41BE-A3F9-AFE61D661FCD}">
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>18</v>
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45F69ADA-9C7A-4454-9807-D55CDD4BADEC}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>6</v>
       </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
       <c r="C2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>20</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>21</v>
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>22</v>
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{100D21F2-9977-48C5-B4C9-125858A80631}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
